--- a/docs/PLANTILLA.xlsx
+++ b/docs/PLANTILLA.xlsx
@@ -24,138 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
-  <si>
-    <t>NombreCompleto</t>
-  </si>
-  <si>
-    <t>Comadre Petra Emilia</t>
-  </si>
-  <si>
-    <t>Ramona Ramonita Rojas</t>
-  </si>
-  <si>
-    <t>RutPaciente</t>
-  </si>
-  <si>
-    <t>92829282-0</t>
-  </si>
-  <si>
-    <t>29819283-0</t>
-  </si>
-  <si>
-    <t>12341232-8</t>
-  </si>
-  <si>
-    <t>Folio</t>
-  </si>
-  <si>
-    <t>90281928-0</t>
-  </si>
-  <si>
-    <t>10928472-1</t>
-  </si>
-  <si>
-    <t>01925212-9</t>
-  </si>
-  <si>
-    <t>LugarOtorgamiento</t>
-  </si>
-  <si>
-    <t>Lugar 2</t>
-  </si>
-  <si>
-    <t>Lugar 3</t>
-  </si>
-  <si>
-    <t>FechaOtorgamiento</t>
-  </si>
-  <si>
-    <t>InstSaludPrevisional</t>
-  </si>
-  <si>
-    <t>NombreMedico</t>
-  </si>
-  <si>
-    <t>RutEmpleador</t>
-  </si>
-  <si>
-    <t>RazonSocial</t>
-  </si>
-  <si>
-    <t>ListadoDeTramitaciones</t>
-  </si>
-  <si>
-    <t>Salud 2</t>
-  </si>
-  <si>
-    <t>Salud 3</t>
-  </si>
-  <si>
-    <t>Medico 2</t>
-  </si>
-  <si>
-    <t>Medico 3</t>
-  </si>
-  <si>
-    <t>02910291-0</t>
-  </si>
-  <si>
-    <t>20910291-8</t>
-  </si>
-  <si>
-    <t>54631387-0</t>
-  </si>
-  <si>
-    <t>Social 2</t>
-  </si>
-  <si>
-    <t>Social 3</t>
-  </si>
-  <si>
-    <t>CodigoVerificacion</t>
-  </si>
-  <si>
-    <t>DFK123</t>
-  </si>
-  <si>
-    <t>JKL456</t>
-  </si>
-  <si>
-    <t>789UIO</t>
-  </si>
-  <si>
-    <t>02/12/2024</t>
-  </si>
-  <si>
-    <t>21/06/2025</t>
-  </si>
-  <si>
-    <t>01/02/2025</t>
-  </si>
-  <si>
-    <t>LinkPdf</t>
-  </si>
-  <si>
-    <t>[["02/01/2025", "Otorgada","Médico Pana", "Observación 1"],["03/02/2025", "En espera","Médico", "Observación 2"]]</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sp1StYshn1Fio4LQF9ORlnkTC0AQKnBI/view</t>
-  </si>
-  <si>
-    <t>Jesús Lara</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Instituto Pedrito</t>
-  </si>
-  <si>
-    <t>Jose Ramirez</t>
-  </si>
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NombreLibro</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Hashtags</t>
+  </si>
+  <si>
+    <t>PrecioBCV</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Destacado</t>
+  </si>
+  <si>
+    <t>Alas de Sangre</t>
+  </si>
+  <si>
+    <t>#Fantasia #Enemiestolovers</t>
+  </si>
+  <si>
+    <t>40,30</t>
+  </si>
+  <si>
+    <t>Si tiene descripción, la coloca. De lo contrario lo puede dejar vacío</t>
+  </si>
+  <si>
+    <t>Si o No</t>
   </si>
 </sst>
 </file>
@@ -196,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,12 +117,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,9 +422,9 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" customWidth="1"/>
@@ -521,154 +433,69 @@
     <col min="12" max="12" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
